--- a/out/img/core/BR_50_training_testing_data.xlsx
+++ b/out/img/core/BR_50_training_testing_data.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1484</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>13231</v>
+        <v>370468</v>
       </c>
     </row>
     <row r="3">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1596</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>10553</v>
+        <v>295484</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1652</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>11457</v>
+        <v>320796</v>
       </c>
     </row>
     <row r="5">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1260</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>13313</v>
+        <v>372764</v>
       </c>
     </row>
     <row r="6">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1036</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>10747</v>
+        <v>300916</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>840</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>13285</v>
+        <v>371980</v>
       </c>
     </row>
     <row r="8">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>952</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>15308</v>
+        <v>428624</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>896</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>13782</v>
+        <v>385896</v>
       </c>
     </row>
     <row r="10">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1036</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>13726</v>
+        <v>384328</v>
       </c>
     </row>
     <row r="11">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1092</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>13985</v>
+        <v>391580</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1092</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>13381</v>
+        <v>374668</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1064</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>15715</v>
+        <v>440020</v>
       </c>
     </row>
     <row r="14">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1456</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>15844</v>
+        <v>443632</v>
       </c>
     </row>
     <row r="15">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>952</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>12632</v>
+        <v>353696</v>
       </c>
     </row>
     <row r="16">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>924</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>14073</v>
+        <v>394044</v>
       </c>
     </row>
     <row r="17">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1148</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>13740</v>
+        <v>384720</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>644</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>13834</v>
+        <v>387352</v>
       </c>
     </row>
     <row r="19">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>896</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>14088</v>
+        <v>394464</v>
       </c>
     </row>
     <row r="20">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1008</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>16153</v>
+        <v>452284</v>
       </c>
     </row>
     <row r="21">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>896</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>14719</v>
+        <v>412132</v>
       </c>
     </row>
     <row r="22">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>728</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>14254</v>
+        <v>399112</v>
       </c>
     </row>
     <row r="23">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1372</v>
+        <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>14957</v>
+        <v>418796</v>
       </c>
     </row>
     <row r="24">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1372</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>14345</v>
+        <v>401660</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1344</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>16518</v>
+        <v>462504</v>
       </c>
     </row>
     <row r="26">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>952</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>16034</v>
+        <v>448952</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1260</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>13467</v>
+        <v>377076</v>
       </c>
     </row>
     <row r="28">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>924</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>12435</v>
+        <v>348180</v>
       </c>
     </row>
     <row r="29">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>532</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>8022</v>
+        <v>224616</v>
       </c>
     </row>
     <row r="30">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1092</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>11139</v>
+        <v>311892</v>
       </c>
     </row>
     <row r="31">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1148</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>11888</v>
+        <v>332864</v>
       </c>
     </row>
     <row r="32">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1232</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
-        <v>13413</v>
+        <v>375564</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1036</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>14170</v>
+        <v>396760</v>
       </c>
     </row>
     <row r="34">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1512</v>
+        <v>54</v>
       </c>
       <c r="D34" t="n">
-        <v>14730</v>
+        <v>412440</v>
       </c>
     </row>
     <row r="35">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1316</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
-        <v>15851</v>
+        <v>443828</v>
       </c>
     </row>
     <row r="36">
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1288</v>
+        <v>46</v>
       </c>
       <c r="D36" t="n">
-        <v>14125</v>
+        <v>395500</v>
       </c>
     </row>
     <row r="37">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1204</v>
+        <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>16485</v>
+        <v>461580</v>
       </c>
     </row>
     <row r="38">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1372</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>14941</v>
+        <v>418348</v>
       </c>
     </row>
     <row r="39">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1288</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
-        <v>1339</v>
+        <v>37492</v>
       </c>
     </row>
     <row r="40">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1248</v>
+        <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>1592</v>
+        <v>41392</v>
       </c>
     </row>
     <row r="41">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1040</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>1246</v>
+        <v>32396</v>
       </c>
     </row>
     <row r="42">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1222</v>
+        <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>1329</v>
+        <v>34554</v>
       </c>
     </row>
     <row r="43">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>1239</v>
+        <v>23541</v>
       </c>
     </row>
     <row r="44">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1274</v>
+        <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>1372</v>
+        <v>35672</v>
       </c>
     </row>
     <row r="45">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1092</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>1404</v>
+        <v>36504</v>
       </c>
     </row>
     <row r="46">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1274</v>
+        <v>49</v>
       </c>
       <c r="D46" t="n">
-        <v>1414</v>
+        <v>36764</v>
       </c>
     </row>
     <row r="47">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1248</v>
+        <v>48</v>
       </c>
       <c r="D47" t="n">
-        <v>1412</v>
+        <v>36712</v>
       </c>
     </row>
     <row r="48">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>858</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>1374</v>
+        <v>35724</v>
       </c>
     </row>
     <row r="49">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1508</v>
+        <v>58</v>
       </c>
       <c r="D49" t="n">
-        <v>1557</v>
+        <v>40482</v>
       </c>
     </row>
     <row r="50">
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1040</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>705</v>
+        <v>18330</v>
       </c>
     </row>
     <row r="51">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1170</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>703</v>
+        <v>18278</v>
       </c>
     </row>
     <row r="52">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1430</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>751</v>
+        <v>19526</v>
       </c>
     </row>
     <row r="53">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>910</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>713</v>
+        <v>18538</v>
       </c>
     </row>
     <row r="54">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1014</v>
+        <v>39</v>
       </c>
       <c r="D54" t="n">
-        <v>719</v>
+        <v>18694</v>
       </c>
     </row>
     <row r="55">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1050</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>792</v>
+        <v>20592</v>
       </c>
     </row>
     <row r="56">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1352</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
-        <v>746</v>
+        <v>19396</v>
       </c>
     </row>
     <row r="57">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1066</v>
+        <v>41</v>
       </c>
       <c r="D57" t="n">
-        <v>758</v>
+        <v>19708</v>
       </c>
     </row>
     <row r="58">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1404</v>
+        <v>54</v>
       </c>
       <c r="D58" t="n">
-        <v>754</v>
+        <v>19604</v>
       </c>
     </row>
     <row r="59">
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>858</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>719</v>
+        <v>18694</v>
       </c>
     </row>
     <row r="60">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>858</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>796</v>
+        <v>20696</v>
       </c>
     </row>
   </sheetData>
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1196</v>
+        <v>46</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>1466,006393,006358,005166,003024,006261,003991,00367,005620,0011,0077935,00766,00122,001390,005710,006795,005993,004826,009825,003356,00546,003538,003,0071074,00773,0092,00</t>
         </is>
       </c>
     </row>
@@ -1469,11 +1469,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>702</v>
+        <v>27</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1499,00</t>
+          <t>1499,005855,005591,004326,003353,006929,004958,00749,006599,0043,0056892,00734,00129,001502,004888,006501,006966,005336,0010769,003572,00596,003539,007,0055589,00767,0091,00</t>
         </is>
       </c>
     </row>
@@ -1487,11 +1487,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1118</v>
+        <v>43</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1778,00</t>
+          <t>1778,006873,006403,005877,003588,008540,006182,00418,009218,0013,0055647,00883,00153,001745,005727,007884,008645,006858,0013235,004185,00607,003858,006,0055032,00868,00115,00</t>
         </is>
       </c>
     </row>
@@ -1505,11 +1505,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1040</v>
+        <v>40</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1874,00</t>
+          <t>1874,005928,005857,005466,002782,007270,005404,00370,008374,008,0062319,00895,00120,001889,005233,006839,007731,006046,0011603,003934,00689,003044,008,0061200,00959,00109,00</t>
         </is>
       </c>
     </row>
@@ -1523,11 +1523,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>910</v>
+        <v>35</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1634,00</t>
+          <t>1634,006492,006320,005994,003011,007711,005705,00400,008251,003,0057445,00923,00172,001712,005736,007267,008153,006550,0012539,004172,00726,003579,002,0057813,00895,00129,00</t>
         </is>
       </c>
     </row>
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1144</v>
+        <v>44</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1714,00</t>
+          <t>1714,006232,006201,005803,003090,008315,005575,00352,007887,008,0060027,00929,00151,001697,005724,007483,008412,006533,0011454,004155,00648,003374,001,0059512,00962,00144,00</t>
         </is>
       </c>
     </row>
@@ -1559,11 +1559,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1144</v>
+        <v>44</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3636,00</t>
+          <t>3636,006443,006458,006157,003321,009022,005318,00331,007509,004,0077838,001129,00165,003578,005799,007984,007902,006220,0012215,004689,00464,004393,005,0073861,001113,00187,00</t>
         </is>
       </c>
     </row>
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1170</v>
+        <v>45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1726,00</t>
+          <t>1726,006661,006534,006423,003760,0010222,006968,00361,0010017,004,0060426,00924,00108,001657,005858,008205,008715,007139,0013066,005120,00568,005005,002,0058592,00922,00136,00</t>
         </is>
       </c>
     </row>
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1456</v>
+        <v>56</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1709,00</t>
+          <t>1709,006155,006138,005756,003582,009415,006177,00270,009629,003,0061039,001013,00173,001639,005348,007373,007420,006400,0012390,005172,00320,005494,002,0059034,001171,00225,00</t>
         </is>
       </c>
     </row>
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1248</v>
+        <v>48</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1738,00</t>
+          <t>1738,005910,005901,005136,004099,009422,006348,00155,008489,001,0063458,001102,00321,001701,005368,007129,006382,005816,0012540,005745,00135,005815,002,0062097,001145,00307,00</t>
         </is>
       </c>
     </row>
@@ -1631,11 +1631,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1326</v>
+        <v>51</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1655,00</t>
+          <t>1655,006280,006079,005182,003711,008094,005769,00141,007657,001,0059973,00639,00103,001623,005142,006762,006245,005484,0011305,004971,00153,005170,000,0059275,00647,00118,00</t>
         </is>
       </c>
     </row>
@@ -1649,11 +1649,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1638</v>
+        <v>63</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1718,00</t>
+          <t>1718,006212,005893,004591,004098,007265,004243,00233,005757,002,0080296,001086,00534,001775,005125,006735,005266,004943,0010126,003810,00170,004019,001,0081754,00764,00111,00</t>
         </is>
       </c>
     </row>

--- a/out/img/core/BR_50_training_testing_data.xlsx
+++ b/out/img/core/BR_50_training_testing_data.xlsx
@@ -469,7 +469,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>370468</v>
+        <v>21126</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>295484</v>
+        <v>16369</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>320796</v>
+        <v>17285</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>372764</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>300916</v>
+        <v>14564</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>371980</v>
+        <v>15070</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>428624</v>
+        <v>19735</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>385896</v>
+        <v>16932</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>384328</v>
+        <v>16926</v>
       </c>
     </row>
     <row r="11">
@@ -613,7 +613,7 @@
         <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>391580</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>374668</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>440020</v>
+        <v>21943</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +661,7 @@
         <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>443632</v>
+        <v>19896</v>
       </c>
     </row>
     <row r="15">
@@ -677,7 +677,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>353696</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>394044</v>
+        <v>17701</v>
       </c>
     </row>
     <row r="17">
@@ -709,7 +709,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>384720</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>387352</v>
+        <v>16515</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>394464</v>
+        <v>17023</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>452284</v>
+        <v>20654</v>
       </c>
     </row>
     <row r="21">
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>412132</v>
+        <v>17769</v>
       </c>
     </row>
     <row r="22">
@@ -789,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>399112</v>
+        <v>16973</v>
       </c>
     </row>
     <row r="23">
@@ -805,7 +805,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>418796</v>
+        <v>17381</v>
       </c>
     </row>
     <row r="24">
@@ -821,7 +821,7 @@
         <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>401660</v>
+        <v>17060</v>
       </c>
     </row>
     <row r="25">
@@ -837,7 +837,7 @@
         <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>462504</v>
+        <v>23551</v>
       </c>
     </row>
     <row r="26">
@@ -853,7 +853,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>448952</v>
+        <v>21070</v>
       </c>
     </row>
     <row r="27">
@@ -869,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>377076</v>
+        <v>17231</v>
       </c>
     </row>
     <row r="28">
@@ -885,7 +885,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>348180</v>
+        <v>14021</v>
       </c>
     </row>
     <row r="29">
@@ -901,7 +901,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>224616</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="30">
@@ -917,7 +917,7 @@
         <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>311892</v>
+        <v>13737</v>
       </c>
     </row>
     <row r="31">
@@ -933,7 +933,7 @@
         <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>332864</v>
+        <v>14148</v>
       </c>
     </row>
     <row r="32">
@@ -949,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="n">
-        <v>375564</v>
+        <v>15293</v>
       </c>
     </row>
     <row r="33">
@@ -965,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>396760</v>
+        <v>16223</v>
       </c>
     </row>
     <row r="34">
@@ -981,7 +981,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="n">
-        <v>412440</v>
+        <v>16321</v>
       </c>
     </row>
     <row r="35">
@@ -997,7 +997,7 @@
         <v>47</v>
       </c>
       <c r="D35" t="n">
-        <v>443828</v>
+        <v>18358</v>
       </c>
     </row>
     <row r="36">
@@ -1013,7 +1013,7 @@
         <v>46</v>
       </c>
       <c r="D36" t="n">
-        <v>395500</v>
+        <v>17426</v>
       </c>
     </row>
     <row r="37">
@@ -1029,7 +1029,7 @@
         <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>461580</v>
+        <v>22804</v>
       </c>
     </row>
     <row r="38">
@@ -1045,7 +1045,7 @@
         <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>418348</v>
+        <v>20469</v>
       </c>
     </row>
     <row r="39">
@@ -1061,7 +1061,7 @@
         <v>46</v>
       </c>
       <c r="D39" t="n">
-        <v>37492</v>
+        <v>14674</v>
       </c>
     </row>
     <row r="40">
@@ -1077,7 +1077,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>41392</v>
+        <v>13928</v>
       </c>
     </row>
     <row r="41">
@@ -1093,7 +1093,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>32396</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="42">
@@ -1109,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>34554</v>
+        <v>17162</v>
       </c>
     </row>
     <row r="43">
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>23541</v>
+        <v>31092</v>
       </c>
     </row>
     <row r="44">
@@ -1141,7 +1141,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>35672</v>
+        <v>19472</v>
       </c>
     </row>
     <row r="45">
@@ -1157,7 +1157,7 @@
         <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>36504</v>
+        <v>18334</v>
       </c>
     </row>
     <row r="46">
@@ -1173,7 +1173,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="n">
-        <v>36764</v>
+        <v>17440</v>
       </c>
     </row>
     <row r="47">
@@ -1189,7 +1189,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="n">
-        <v>36712</v>
+        <v>18954</v>
       </c>
     </row>
     <row r="48">
@@ -1205,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>35724</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="49">
@@ -1221,7 +1221,7 @@
         <v>58</v>
       </c>
       <c r="D49" t="n">
-        <v>40482</v>
+        <v>23387</v>
       </c>
     </row>
     <row r="50">
@@ -1237,7 +1237,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>18330</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="51">
@@ -1253,7 +1253,7 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>18278</v>
+        <v>16260</v>
       </c>
     </row>
     <row r="52">
@@ -1269,7 +1269,7 @@
         <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>19526</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="53">
@@ -1285,7 +1285,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>18538</v>
+        <v>17749</v>
       </c>
     </row>
     <row r="54">
@@ -1301,7 +1301,7 @@
         <v>39</v>
       </c>
       <c r="D54" t="n">
-        <v>18694</v>
+        <v>17677</v>
       </c>
     </row>
     <row r="55">
@@ -1317,7 +1317,7 @@
         <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>20592</v>
+        <v>22301</v>
       </c>
     </row>
     <row r="56">
@@ -1333,7 +1333,7 @@
         <v>52</v>
       </c>
       <c r="D56" t="n">
-        <v>19396</v>
+        <v>18942</v>
       </c>
     </row>
     <row r="57">
@@ -1349,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="D57" t="n">
-        <v>19708</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="58">
@@ -1365,7 +1365,7 @@
         <v>54</v>
       </c>
       <c r="D58" t="n">
-        <v>19604</v>
+        <v>20070</v>
       </c>
     </row>
     <row r="59">
@@ -1381,7 +1381,7 @@
         <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>18694</v>
+        <v>18082</v>
       </c>
     </row>
     <row r="60">
@@ -1397,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>20696</v>
+        <v>25238</v>
       </c>
     </row>
   </sheetData>
@@ -1453,11 +1453,7 @@
       <c r="C2" t="n">
         <v>46</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1466,006393,006358,005166,003024,006261,003991,00367,005620,0011,0077935,00766,00122,001390,005710,006795,005993,004826,009825,003356,00546,003538,003,0071074,00773,0092,00</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1471,11 +1467,7 @@
       <c r="C3" t="n">
         <v>27</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1499,005855,005591,004326,003353,006929,004958,00749,006599,0043,0056892,00734,00129,001502,004888,006501,006966,005336,0010769,003572,00596,003539,007,0055589,00767,0091,00</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1489,11 +1481,7 @@
       <c r="C4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1778,006873,006403,005877,003588,008540,006182,00418,009218,0013,0055647,00883,00153,001745,005727,007884,008645,006858,0013235,004185,00607,003858,006,0055032,00868,00115,00</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1507,11 +1495,7 @@
       <c r="C5" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1874,005928,005857,005466,002782,007270,005404,00370,008374,008,0062319,00895,00120,001889,005233,006839,007731,006046,0011603,003934,00689,003044,008,0061200,00959,00109,00</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1525,11 +1509,7 @@
       <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1634,006492,006320,005994,003011,007711,005705,00400,008251,003,0057445,00923,00172,001712,005736,007267,008153,006550,0012539,004172,00726,003579,002,0057813,00895,00129,00</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1543,11 +1523,7 @@
       <c r="C7" t="n">
         <v>44</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1714,006232,006201,005803,003090,008315,005575,00352,007887,008,0060027,00929,00151,001697,005724,007483,008412,006533,0011454,004155,00648,003374,001,0059512,00962,00144,00</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1561,11 +1537,7 @@
       <c r="C8" t="n">
         <v>44</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3636,006443,006458,006157,003321,009022,005318,00331,007509,004,0077838,001129,00165,003578,005799,007984,007902,006220,0012215,004689,00464,004393,005,0073861,001113,00187,00</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1579,11 +1551,7 @@
       <c r="C9" t="n">
         <v>45</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1726,006661,006534,006423,003760,0010222,006968,00361,0010017,004,0060426,00924,00108,001657,005858,008205,008715,007139,0013066,005120,00568,005005,002,0058592,00922,00136,00</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1597,11 +1565,7 @@
       <c r="C10" t="n">
         <v>56</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1709,006155,006138,005756,003582,009415,006177,00270,009629,003,0061039,001013,00173,001639,005348,007373,007420,006400,0012390,005172,00320,005494,002,0059034,001171,00225,00</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1615,11 +1579,7 @@
       <c r="C11" t="n">
         <v>48</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1738,005910,005901,005136,004099,009422,006348,00155,008489,001,0063458,001102,00321,001701,005368,007129,006382,005816,0012540,005745,00135,005815,002,0062097,001145,00307,00</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1633,11 +1593,7 @@
       <c r="C12" t="n">
         <v>51</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1655,006280,006079,005182,003711,008094,005769,00141,007657,001,0059973,00639,00103,001623,005142,006762,006245,005484,0011305,004971,00153,005170,000,0059275,00647,00118,00</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1651,11 +1607,7 @@
       <c r="C13" t="n">
         <v>63</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1718,006212,005893,004591,004098,007265,004243,00233,005757,002,0080296,001086,00534,001775,005125,006735,005266,004943,0010126,003810,00170,004019,001,0081754,00764,00111,00</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
